--- a/admin-web/src/main/resources/templates/excel/近效期产品清单模板.xlsx
+++ b/admin-web/src/main/resources/templates/excel/近效期产品清单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24840" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="外高桥" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Short Shelf life Products Quality Feedback Form（QFF）近效期产品质量反馈表</t>
   </si>
@@ -62,6 +62,47 @@
   </si>
   <si>
     <t>罗氏库位</t>
+  </si>
+  <si>
+    <t>05907128001</t>
+  </si>
+  <si>
+    <r>
+      <t>原位杂交地高辛红染染色液</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+  </si>
+  <si>
+    <t>E09724</t>
+  </si>
+  <si>
+    <t>8001422336</t>
+  </si>
+  <si>
+    <t>T029</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>CN05</t>
   </si>
 </sst>
 </file>
@@ -74,7 +115,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -121,14 +162,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,89 +194,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +214,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,24 +259,55 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,31 +328,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,37 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,109 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,13 +546,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +600,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -552,45 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -599,15 +643,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -616,10 +651,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,145 +663,151 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,14 +817,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="20" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,19 +836,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,7 +1180,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
@@ -1143,143 +1190,161 @@
     <col min="3" max="3" width="21.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="42.1428571428571" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="20.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="20.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5714285714286" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.1428571428571" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.7142857142857" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1428571428571" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.7142857142857" style="4" customWidth="1"/>
+    <col min="11" max="11" width="20" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="I1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="I1" s="2"/>
       <c r="J1"/>
       <c r="K1"/>
     </row>
     <row r="2" ht="17.25" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="I2"/>
+      <c r="I2" s="2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" ht="13.5" spans="1:11">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14">
+        <v>30350402</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17">
+        <v>43760</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:11">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:K8">

--- a/admin-web/src/main/resources/templates/excel/近效期产品清单模板.xlsx
+++ b/admin-web/src/main/resources/templates/excel/近效期产品清单模板.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24840" windowHeight="11670"/>
+    <workbookView windowWidth="26745" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="外高桥" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">外高桥!$B$3:$K$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">外高桥!$A$3:$J$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Short Shelf life Products Quality Feedback Form（QFF）近效期产品质量反馈表</t>
   </si>
@@ -31,9 +31,6 @@
     <t>报告日期：</t>
   </si>
   <si>
-    <t>运输单号</t>
-  </si>
-  <si>
     <t>康德乐物料号</t>
   </si>
   <si>
@@ -62,47 +59,6 @@
   </si>
   <si>
     <t>罗氏库位</t>
-  </si>
-  <si>
-    <t>05907128001</t>
-  </si>
-  <si>
-    <r>
-      <t>原位杂交地高辛红染染色液</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试</t>
-    </r>
-  </si>
-  <si>
-    <t>E09724</t>
-  </si>
-  <si>
-    <t>8001422336</t>
-  </si>
-  <si>
-    <t>T029</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>CN05</t>
   </si>
 </sst>
 </file>
@@ -110,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -163,14 +119,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,43 +231,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -235,19 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,47 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,13 +284,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,169 +386,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -607,15 +548,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,153 +575,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -852,9 +808,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1133,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
@@ -1226,17 +1179,17 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -1257,97 +1210,69 @@
       <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="14"/>
-      <c r="B4" s="14">
-        <v>30350402</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="17">
-        <v>43760</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="14">
-        <v>2</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="20"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
     </row>
-    <row r="7" ht="12" customHeight="1" spans="1:11">
+    <row r="7" ht="12" customHeight="1" spans="1:10">
       <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="20"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="20"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:K8">
+  <autoFilter ref="A3:J8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
